--- a/Report.xlsx
+++ b/Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -32,13 +32,31 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>yakov</t>
+    <t>yakov grintz</t>
   </si>
   <si>
     <t>0586010301</t>
   </si>
   <si>
-    <t/>
+    <t>hello yakov grintz I love you!!!</t>
+  </si>
+  <si>
+    <t>אמא היקרה</t>
+  </si>
+  <si>
+    <t>0505151524</t>
+  </si>
+  <si>
+    <t>hello אמא היקרה I love you!!!</t>
+  </si>
+  <si>
+    <t>yakov 2</t>
+  </si>
+  <si>
+    <t>0555646106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi </t>
   </si>
 </sst>
 </file>
@@ -83,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,6 +141,34 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -32,31 +32,10 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>yakov grintz</t>
+    <t>y</t>
   </si>
   <si>
     <t>0586010301</t>
-  </si>
-  <si>
-    <t>hello yakov grintz I love you!!!</t>
-  </si>
-  <si>
-    <t>אמא היקרה</t>
-  </si>
-  <si>
-    <t>0505151524</t>
-  </si>
-  <si>
-    <t>hello אמא היקרה I love you!!!</t>
-  </si>
-  <si>
-    <t>yakov 2</t>
-  </si>
-  <si>
-    <t>0555646106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hi </t>
   </si>
 </sst>
 </file>
@@ -101,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -135,40 +114,12 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
